--- a/src/main/java/ma/emsi/exportedData/filtredClients.xlsx
+++ b/src/main/java/ma/emsi/exportedData/filtredClients.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>27d00b84-7f66-4ad4-b032-9ae7d0d1014f</t>
+    <t>10be1bea-ce2c-4edc-a224-492f0b102f67</t>
   </si>
   <si>
-    <t>TIOUGUY</t>
+    <t>GUENNIOUI</t>
   </si>
   <si>
-    <t>HAMZA</t>
+    <t>ABDALLAH</t>
   </si>
   <si>
-    <t>MAROC</t>
+    <t>MOROCCO</t>
   </si>
   <si>
     <t>SALE</t>
   </si>
   <si>
-    <t>MKINSIA</t>
+    <t>SALE12300</t>
   </si>
   <si>
-    <t>0762729034</t>
+    <t>0865</t>
   </si>
   <si>
     <t>IDENTIFIANT</t>

--- a/src/main/java/ma/emsi/exportedData/filtredClients.xlsx
+++ b/src/main/java/ma/emsi/exportedData/filtredClients.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>10be1bea-ce2c-4edc-a224-492f0b102f67</t>
+    <t>27d00b84-7f66-4ad4-b032-9ae7d0d1014f</t>
   </si>
   <si>
-    <t>GUENNIOUI</t>
+    <t>TIOUGUYY</t>
   </si>
   <si>
-    <t>ABDALLAH</t>
+    <t>HAMZAA</t>
   </si>
   <si>
-    <t>MOROCCO</t>
+    <t>MAROCC</t>
   </si>
   <si>
-    <t>SALE</t>
+    <t>SALEE</t>
   </si>
   <si>
-    <t>SALE12300</t>
+    <t>MKINSIAA</t>
   </si>
   <si>
-    <t>0865</t>
+    <t>07627290345</t>
   </si>
   <si>
     <t>IDENTIFIANT</t>
